--- a/benchmark/ampl-solving-times.xlsx
+++ b/benchmark/ampl-solving-times.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vju/repos/alg-mod-rev/benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FB1D5F-7721-4D40-ABA5-EEC15E4835ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37440E1F-437E-004B-A071-BB1911440831}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16140" activeTab="1" xr2:uid="{C821D284-F777-4A48-81E2-87494BD9874B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" activeTab="2" xr2:uid="{C821D284-F777-4A48-81E2-87494BD9874B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Benchmark" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary" sheetId="2" r:id="rId2"/>
+    <sheet name="Benchmark 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Benchmark 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Summary" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Benchmark!$A$1:$H$293</definedName>
-    <definedName name="solve" localSheetId="0">Benchmark!$A$1:$I$291</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Benchmark 1'!$A$1:$H$293</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Benchmark 2'!$A$1:$H$1</definedName>
+    <definedName name="MODEL_SOLVE_TIME.md" localSheetId="1">'Benchmark 2'!$A$1:$I$127</definedName>
+    <definedName name="solve" localSheetId="0">'Benchmark 1'!$A$1:$I$291</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,24 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{2AEEC417-7DCA-1344-B880-BABD9ED0A39B}" name="solve" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{A096DF69-F67C-8C43-88EB-1AF67BAAABA4}" name="MODEL_SOLVE_TIME" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/vju/repos/opt-mod-lib/benchmark/MODEL_SOLVE_TIME.md" thousands=" " tab="0" delimiter="|">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{2AEEC417-7DCA-1344-B880-BABD9ED0A39B}" name="solve" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/vju/repos/opt-mod-lib/benchmark/solve.csv" thousands=" " tab="0" delimiter="|">
       <textFields count="11">
         <textField/>
@@ -57,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="194">
   <si>
     <t>Model</t>
   </si>
@@ -596,9 +616,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Presolve impact</t>
-  </si>
-  <si>
     <t>Obj match</t>
   </si>
   <si>
@@ -620,10 +637,28 @@
     <t>yemcem</t>
   </si>
   <si>
+    <t>Neutral</t>
+  </si>
+  <si>
     <t>Positive</t>
   </si>
   <si>
-    <t>Neutral</t>
+    <t>Presolve impact (Baron and Gurobi solvers with presolve on)</t>
+  </si>
+  <si>
+    <t>Note: clad and mws models were excluded due to too long execution time</t>
+  </si>
+  <si>
+    <t>Benchmark 1 (solver presolve on)</t>
+  </si>
+  <si>
+    <t>Benchmark 2 (solver presolve off)</t>
+  </si>
+  <si>
+    <t>Presolve impact (Gurobi solver with presolve on)</t>
+  </si>
+  <si>
+    <t>Presolve impact (Gurobi solver with presolve off)</t>
   </si>
 </sst>
 </file>
@@ -633,7 +668,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -649,8 +684,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,8 +718,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -765,11 +820,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -798,10 +866,19 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -822,7 +899,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="solve" connectionId="1" xr16:uid="{6BFECB5E-0FBF-524F-ADE6-B22B1898970C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="solve" connectionId="2" xr16:uid="{6BFECB5E-0FBF-524F-ADE6-B22B1898970C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="MODEL_SOLVE_TIME.md" connectionId="1" xr16:uid="{070EF57F-BCAE-7A41-BC3B-5341E19571CE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1125,7 +1206,7 @@
   <dimension ref="A1:K293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1173,7 +1254,7 @@
         <v>176</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -10893,7 +10974,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>109</v>
@@ -10931,7 +11012,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>109</v>
@@ -10969,25 +11050,4338 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063B8DD7-7607-2446-9082-53220CCE164B}">
+  <dimension ref="A1:K127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4.8200000000000001E-4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1566.042189</v>
+      </c>
+      <c r="H2" s="1">
+        <v>24</v>
+      </c>
+      <c r="I2" s="24">
+        <f>H3-H2</f>
+        <v>3</v>
+      </c>
+      <c r="J2" s="23">
+        <f>F3-F2</f>
+        <v>1.4499999999999995E-4</v>
+      </c>
+      <c r="K2" s="12" t="b">
+        <f>IF(ISNUMBER(ROUND(G3-G2,2)), ROUND(G3-G2,2)=0,G3=G2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6.2699999999999995E-4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1566.042189</v>
+      </c>
+      <c r="H3" s="1">
+        <v>27</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.8184999999999996E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1">
+        <v>626</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4" si="0">H5-H4</f>
+        <v>-78</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" ref="J4" si="1">F5-F4</f>
+        <v>-1.4233999999999997E-2</v>
+      </c>
+      <c r="K4" s="13" t="b">
+        <f t="shared" ref="K4" si="2">IF(ISNUMBER(ROUND(G5-G4,2)), ROUND(G5-G4,2)=0,G5=G4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.3950999999999999E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1">
+        <v>548</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6.3500000000000004E-4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>79.341292440000004</v>
+      </c>
+      <c r="H6" s="1">
+        <v>15</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" ref="I6" si="3">H7-H6</f>
+        <v>4</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" ref="J6" si="4">F7-F6</f>
+        <v>-2.6500000000000004E-4</v>
+      </c>
+      <c r="K6" s="13" t="b">
+        <f t="shared" ref="K6" si="5">IF(ISNUMBER(ROUND(G7-G6,2)), ROUND(G7-G6,2)=0,G7=G6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>79.341292440000004</v>
+      </c>
+      <c r="H7" s="1">
+        <v>19</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.38503300000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2666.6992540000001</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4547</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" ref="I8" si="6">H9-H8</f>
+        <v>51</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" ref="J8" si="7">F9-F8</f>
+        <v>-3.2281000000000004E-2</v>
+      </c>
+      <c r="K8" s="13" t="b">
+        <f t="shared" ref="K8" si="8">IF(ISNUMBER(ROUND(G9-G8,2)), ROUND(G9-G8,2)=0,G9=G8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.35275200000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2666.6992540000001</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4598</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.405E-3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>15210109.51</v>
+      </c>
+      <c r="H10" s="1">
+        <v>27</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" ref="I10" si="9">H11-H10</f>
+        <v>7</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" ref="J10" si="10">F11-F10</f>
+        <v>-2.6800000000000001E-4</v>
+      </c>
+      <c r="K10" s="13" t="b">
+        <f t="shared" ref="K10" si="11">IF(ISNUMBER(ROUND(G11-G10,2)), ROUND(G11-G10,2)=0,G11=G10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.137E-3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>15210109.51</v>
+      </c>
+      <c r="H11" s="1">
+        <v>34</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6.9899999999999997E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>15210109.51</v>
+      </c>
+      <c r="H12" s="1">
+        <v>43</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" ref="I12" si="12">H13-H12</f>
+        <v>-6</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" ref="J12" si="13">F13-F12</f>
+        <v>4.7300000000000033E-4</v>
+      </c>
+      <c r="K12" s="13" t="b">
+        <f t="shared" ref="K12" si="14">IF(ISNUMBER(ROUND(G13-G12,2)), ROUND(G13-G12,2)=0,G13=G12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7.463E-3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>15210109.51</v>
+      </c>
+      <c r="H13" s="1">
+        <v>37</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4.0499999999999998E-4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>93.75</v>
+      </c>
+      <c r="H14" s="1">
+        <v>14</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" ref="I14" si="15">H15-H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" ref="J14" si="16">F15-F14</f>
+        <v>6.4000000000000038E-5</v>
+      </c>
+      <c r="K14" s="13" t="b">
+        <f t="shared" ref="K14" si="17">IF(ISNUMBER(ROUND(G15-G14,2)), ROUND(G15-G14,2)=0,G15=G14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4.6900000000000002E-4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>93.75</v>
+      </c>
+      <c r="H15" s="1">
+        <v>14</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.16683700000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>97.345068420000004</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2001</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" ref="I16" si="18">H17-H16</f>
+        <v>-457</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" ref="J16" si="19">F17-F16</f>
+        <v>-2.1252000000000021E-2</v>
+      </c>
+      <c r="K16" s="13" t="b">
+        <f t="shared" ref="K16" si="20">IF(ISNUMBER(ROUND(G17-G16,2)), ROUND(G17-G16,2)=0,G17=G16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.14558499999999999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>97.345068420000004</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1544</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6.7121E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>845</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" ref="I18" si="21">H19-H18</f>
+        <v>37</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" ref="J18" si="22">F19-F18</f>
+        <v>5.0240999999999994E-2</v>
+      </c>
+      <c r="K18" s="13" t="b">
+        <f t="shared" ref="K18" si="23">IF(ISNUMBER(ROUND(G19-G18,2)), ROUND(G19-G18,2)=0,G19=G18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.11736199999999999</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1">
+        <v>882</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3.5285999999999998E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>71961.224749999994</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1403</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" ref="I20" si="24">H21-H20</f>
+        <v>-3</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" ref="J20" si="25">F21-F20</f>
+        <v>7.3800000000000254E-4</v>
+      </c>
+      <c r="K20" s="13" t="b">
+        <f t="shared" ref="K20" si="26">IF(ISNUMBER(ROUND(G21-G20,2)), ROUND(G21-G20,2)=0,G21=G20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3.6024E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>71961.224749999994</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>106</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" ref="I22" si="27">H23-H22</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" ref="J22" si="28">F23-F22</f>
+        <v>9.9999999999926537E-7</v>
+      </c>
+      <c r="K22" s="13" t="b">
+        <f t="shared" ref="K22" si="29">IF(ISNUMBER(ROUND(G23-G22,2)), ROUND(G23-G22,2)=0,G23=G22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.4501E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>107</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2.6600000000000001E-4</v>
+      </c>
+      <c r="G24" s="1">
+        <v>517</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" ref="I24" si="30">H25-H24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" ref="J24" si="31">F25-F24</f>
+        <v>9.0499999999999999E-4</v>
+      </c>
+      <c r="K24" s="13" t="b">
+        <f t="shared" ref="K24" si="32">IF(ISNUMBER(ROUND(G25-G24,2)), ROUND(G25-G24,2)=0,G25=G24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1.1709999999999999E-3</v>
+      </c>
+      <c r="G25" s="1">
+        <v>517</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.96934200000000004</v>
+      </c>
+      <c r="G26" s="1">
+        <v>21</v>
+      </c>
+      <c r="H26" s="1">
+        <v>34887</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" ref="I26" si="33">H27-H26</f>
+        <v>8630</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" ref="J26" si="34">F27-F26</f>
+        <v>0.3197279999999999</v>
+      </c>
+      <c r="K26" s="13" t="b">
+        <f t="shared" ref="K26" si="35">IF(ISNUMBER(ROUND(G27-G26,2)), ROUND(G27-G26,2)=0,G27=G26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.2890699999999999</v>
+      </c>
+      <c r="G27" s="1">
+        <v>21</v>
+      </c>
+      <c r="H27" s="1">
+        <v>43517</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1">
+        <v>12.7522</v>
+      </c>
+      <c r="G28" s="1">
+        <v>21</v>
+      </c>
+      <c r="H28" s="1">
+        <v>148941</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" ref="I28" si="36">H29-H28</f>
+        <v>141005</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" ref="J28" si="37">F29-F28</f>
+        <v>11.4474</v>
+      </c>
+      <c r="K28" s="13" t="b">
+        <f t="shared" ref="K28" si="38">IF(ISNUMBER(ROUND(G29-G28,2)), ROUND(G29-G28,2)=0,G29=G28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1">
+        <v>24.1996</v>
+      </c>
+      <c r="G29" s="1">
+        <v>21</v>
+      </c>
+      <c r="H29" s="1">
+        <v>289946</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.0891E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4134175.702</v>
+      </c>
+      <c r="H30" s="1">
+        <v>471</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" ref="I30" si="39">H31-H30</f>
+        <v>-25</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" ref="J30" si="40">F31-F30</f>
+        <v>6.3799999999999968E-4</v>
+      </c>
+      <c r="K30" s="13" t="b">
+        <f t="shared" ref="K30" si="41">IF(ISNUMBER(ROUND(G31-G30,2)), ROUND(G31-G30,2)=0,G31=G30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1.1528999999999999E-2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4134175.702</v>
+      </c>
+      <c r="H31" s="1">
+        <v>446</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.20860899999999999</v>
+      </c>
+      <c r="G32" s="1">
+        <v>46.867563449999999</v>
+      </c>
+      <c r="H32" s="1">
+        <v>11</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" ref="I32" si="42">H33-H32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" ref="J32" si="43">F33-F32</f>
+        <v>1.6349999999999976E-3</v>
+      </c>
+      <c r="K32" s="13" t="b">
+        <f t="shared" ref="K32" si="44">IF(ISNUMBER(ROUND(G33-G32,2)), ROUND(G33-G32,2)=0,G33=G32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.21024399999999999</v>
+      </c>
+      <c r="G33" s="1">
+        <v>46.867563490000002</v>
+      </c>
+      <c r="H33" s="1">
+        <v>11</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1.0148000000000001E-2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>173.4062089</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1439</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" ref="I34" si="45">H35-H34</f>
+        <v>129</v>
+      </c>
+      <c r="J34" s="9">
+        <f t="shared" ref="J34" si="46">F35-F34</f>
+        <v>1.3058999999999998E-2</v>
+      </c>
+      <c r="K34" s="13" t="b">
+        <f t="shared" ref="K34" si="47">IF(ISNUMBER(ROUND(G35-G34,2)), ROUND(G35-G34,2)=0,G35=G34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2.3206999999999998E-2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>173.4062089</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1568</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="13"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.1230000000000001E-3</v>
+      </c>
+      <c r="G36" s="1">
+        <v>58793.822699999997</v>
+      </c>
+      <c r="H36" s="1">
+        <v>144</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" ref="I36" si="48">H37-H36</f>
+        <v>73</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" ref="J36" si="49">F37-F36</f>
+        <v>2.2899999999999982E-4</v>
+      </c>
+      <c r="K36" s="13" t="b">
+        <f t="shared" ref="K36" si="50">IF(ISNUMBER(ROUND(G37-G36,2)), ROUND(G37-G36,2)=0,G37=G36)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.3519999999999999E-3</v>
+      </c>
+      <c r="G37" s="1">
+        <v>58793.822699999997</v>
+      </c>
+      <c r="H37" s="1">
+        <v>217</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.15995300000000001</v>
+      </c>
+      <c r="G38" s="1">
+        <v>100278.7037</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2988</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" ref="I38" si="51">H39-H38</f>
+        <v>-227</v>
+      </c>
+      <c r="J38" s="9">
+        <f t="shared" ref="J38" si="52">F39-F38</f>
+        <v>6.4180999999999988E-2</v>
+      </c>
+      <c r="K38" s="13" t="b">
+        <f t="shared" ref="K38" si="53">IF(ISNUMBER(ROUND(G39-G38,2)), ROUND(G39-G38,2)=0,G39=G38)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.224134</v>
+      </c>
+      <c r="G39" s="1">
+        <v>100278.7037</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2761</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
+        <f t="shared" ref="I40" si="54">H41-H40</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="9">
+        <f t="shared" ref="J40" si="55">F41-F40</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="13" t="b">
+        <f t="shared" ref="K40" si="56">IF(ISNUMBER(ROUND(G41-G40,2)), ROUND(G41-G40,2)=0,G41=G40)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="1">
+        <v>8.9099999999999997E-4</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2323</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
+        <f t="shared" ref="I42" si="57">H43-H42</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="9">
+        <f t="shared" ref="J42" si="58">F43-F42</f>
+        <v>1.5000000000000039E-5</v>
+      </c>
+      <c r="K42" s="13" t="b">
+        <f t="shared" ref="K42" si="59">IF(ISNUMBER(ROUND(G43-G42,2)), ROUND(G43-G42,2)=0,G43=G42)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="1">
+        <v>9.0600000000000001E-4</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2323</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="1">
+        <v>5.6300000000000002E-4</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>8</v>
+      </c>
+      <c r="I44" s="6">
+        <f t="shared" ref="I44" si="60">H45-H44</f>
+        <v>1</v>
+      </c>
+      <c r="J44" s="9">
+        <f t="shared" ref="J44" si="61">F45-F44</f>
+        <v>7.2999999999999931E-5</v>
+      </c>
+      <c r="K44" s="13" t="b">
+        <f t="shared" ref="K44" si="62">IF(ISNUMBER(ROUND(G45-G44,2)), ROUND(G45-G44,2)=0,G45=G44)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="1">
+        <v>6.3599999999999996E-4</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>9</v>
+      </c>
+      <c r="I45" s="6"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.72507999999999995</v>
+      </c>
+      <c r="G46" s="1">
+        <v>114873.6556</v>
+      </c>
+      <c r="H46" s="1">
+        <v>524</v>
+      </c>
+      <c r="I46" s="6">
+        <f t="shared" ref="I46" si="63">H47-H46</f>
+        <v>3594</v>
+      </c>
+      <c r="J46" s="9">
+        <f t="shared" ref="J46" si="64">F47-F46</f>
+        <v>4.2264000000000079E-2</v>
+      </c>
+      <c r="K46" s="13" t="b">
+        <f t="shared" ref="K46" si="65">IF(ISNUMBER(ROUND(G47-G46,2)), ROUND(G47-G46,2)=0,G47=G46)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.76734400000000003</v>
+      </c>
+      <c r="G47" s="1">
+        <v>114873.6556</v>
+      </c>
+      <c r="H47" s="1">
+        <v>4118</v>
+      </c>
+      <c r="I47" s="6"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="13"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2.3400000000000001E-3</v>
+      </c>
+      <c r="G48" s="1">
+        <v>114.03973000000001</v>
+      </c>
+      <c r="H48" s="1">
+        <v>409</v>
+      </c>
+      <c r="I48" s="6">
+        <f t="shared" ref="I48" si="66">H49-H48</f>
+        <v>-6</v>
+      </c>
+      <c r="J48" s="9">
+        <f t="shared" ref="J48" si="67">F49-F48</f>
+        <v>-8.7000000000000272E-5</v>
+      </c>
+      <c r="K48" s="13" t="b">
+        <f t="shared" ref="K48" si="68">IF(ISNUMBER(ROUND(G49-G48,2)), ROUND(G49-G48,2)=0,G49=G48)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2.2529999999999998E-3</v>
+      </c>
+      <c r="G49" s="1">
+        <v>114.03973000000001</v>
+      </c>
+      <c r="H49" s="1">
+        <v>403</v>
+      </c>
+      <c r="I49" s="6"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.46817799999999998</v>
+      </c>
+      <c r="G50" s="1">
+        <v>123055660.90000001</v>
+      </c>
+      <c r="H50" s="1">
+        <v>3409</v>
+      </c>
+      <c r="I50" s="6">
+        <f t="shared" ref="I50" si="69">H51-H50</f>
+        <v>613</v>
+      </c>
+      <c r="J50" s="9">
+        <f t="shared" ref="J50" si="70">F51-F50</f>
+        <v>8.701800000000004E-2</v>
+      </c>
+      <c r="K50" s="13" t="b">
+        <f t="shared" ref="K50" si="71">IF(ISNUMBER(ROUND(G51-G50,2)), ROUND(G51-G50,2)=0,G51=G50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.55519600000000002</v>
+      </c>
+      <c r="G51" s="1">
+        <v>123056660.5</v>
+      </c>
+      <c r="H51" s="1">
+        <v>4022</v>
+      </c>
+      <c r="I51" s="6"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="13"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1.593E-3</v>
+      </c>
+      <c r="G52" s="1">
+        <v>32</v>
+      </c>
+      <c r="H52" s="1">
+        <v>44</v>
+      </c>
+      <c r="I52" s="6">
+        <f t="shared" ref="I52" si="72">H53-H52</f>
+        <v>1</v>
+      </c>
+      <c r="J52" s="9">
+        <f t="shared" ref="J52" si="73">F53-F52</f>
+        <v>3.9110000000000004E-3</v>
+      </c>
+      <c r="K52" s="13" t="b">
+        <f t="shared" ref="K52" si="74">IF(ISNUMBER(ROUND(G53-G52,2)), ROUND(G53-G52,2)=0,G53=G52)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="1">
+        <v>5.5040000000000002E-3</v>
+      </c>
+      <c r="G53" s="1">
+        <v>32</v>
+      </c>
+      <c r="H53" s="1">
+        <v>45</v>
+      </c>
+      <c r="I53" s="6"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>230</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <f t="shared" ref="I54" si="75">H55-H54</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="9">
+        <f t="shared" ref="J54" si="76">F55-F54</f>
+        <v>5.1699999999999999E-4</v>
+      </c>
+      <c r="K54" s="13" t="b">
+        <f t="shared" ref="K54" si="77">IF(ISNUMBER(ROUND(G55-G54,2)), ROUND(G55-G54,2)=0,G55=G54)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="1">
+        <v>5.1699999999999999E-4</v>
+      </c>
+      <c r="G55" s="1">
+        <v>230</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="6"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="13"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="1">
+        <v>6.5700000000000003E-4</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>45</v>
+      </c>
+      <c r="I56" s="6">
+        <f t="shared" ref="I56" si="78">H57-H56</f>
+        <v>-4</v>
+      </c>
+      <c r="J56" s="9">
+        <f t="shared" ref="J56" si="79">F57-F56</f>
+        <v>-2.9000000000000054E-5</v>
+      </c>
+      <c r="K56" s="13" t="b">
+        <f t="shared" ref="K56" si="80">IF(ISNUMBER(ROUND(G57-G56,2)), ROUND(G57-G56,2)=0,G57=G56)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="1">
+        <v>6.2799999999999998E-4</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>41</v>
+      </c>
+      <c r="I57" s="6"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="13"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2401.5772539999998</v>
+      </c>
+      <c r="H58" s="1">
+        <v>39</v>
+      </c>
+      <c r="I58" s="6">
+        <f t="shared" ref="I58" si="81">H59-H58</f>
+        <v>-1</v>
+      </c>
+      <c r="J58" s="9">
+        <f t="shared" ref="J58" si="82">F59-F58</f>
+        <v>-5.2799999999999993E-4</v>
+      </c>
+      <c r="K58" s="13" t="b">
+        <f t="shared" ref="K58" si="83">IF(ISNUMBER(ROUND(G59-G58,2)), ROUND(G59-G58,2)=0,G59=G58)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="1">
+        <v>6.7199999999999996E-4</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2401.5772539999998</v>
+      </c>
+      <c r="H59" s="1">
+        <v>38</v>
+      </c>
+      <c r="I59" s="6"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="13"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="1">
+        <v>3.8779999999999999E-3</v>
+      </c>
+      <c r="G60" s="1">
+        <v>27569.598900000001</v>
+      </c>
+      <c r="H60" s="1">
+        <v>388</v>
+      </c>
+      <c r="I60" s="6">
+        <f t="shared" ref="I60" si="84">H61-H60</f>
+        <v>122</v>
+      </c>
+      <c r="J60" s="9">
+        <f t="shared" ref="J60" si="85">F61-F60</f>
+        <v>1.9219999999999997E-3</v>
+      </c>
+      <c r="K60" s="13" t="b">
+        <f t="shared" ref="K60" si="86">IF(ISNUMBER(ROUND(G61-G60,2)), ROUND(G61-G60,2)=0,G61=G60)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="1">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="G61" s="1">
+        <v>27569.598900000001</v>
+      </c>
+      <c r="H61" s="1">
+        <v>510</v>
+      </c>
+      <c r="I61" s="6"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="13"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.154472</v>
+      </c>
+      <c r="G62" s="1">
+        <v>12851.076290000001</v>
+      </c>
+      <c r="H62" s="1">
+        <v>2195</v>
+      </c>
+      <c r="I62" s="6">
+        <f t="shared" ref="I62" si="87">H63-H62</f>
+        <v>310</v>
+      </c>
+      <c r="J62" s="9">
+        <f t="shared" ref="J62" si="88">F63-F62</f>
+        <v>-4.8130000000000117E-3</v>
+      </c>
+      <c r="K62" s="13" t="b">
+        <f t="shared" ref="K62" si="89">IF(ISNUMBER(ROUND(G63-G62,2)), ROUND(G63-G62,2)=0,G63=G62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.14965899999999999</v>
+      </c>
+      <c r="G63" s="1">
+        <v>12850.86074</v>
+      </c>
+      <c r="H63" s="1">
+        <v>2505</v>
+      </c>
+      <c r="I63" s="6"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="13"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="1">
+        <v>4.8299999999999998E-4</v>
+      </c>
+      <c r="G64" s="1">
+        <v>538.81120399999998</v>
+      </c>
+      <c r="H64" s="1">
+        <v>36</v>
+      </c>
+      <c r="I64" s="6">
+        <f t="shared" ref="I64" si="90">H65-H64</f>
+        <v>17</v>
+      </c>
+      <c r="J64" s="9">
+        <f t="shared" ref="J64" si="91">F65-F64</f>
+        <v>4.2900000000000007E-4</v>
+      </c>
+      <c r="K64" s="13" t="b">
+        <f t="shared" ref="K64" si="92">IF(ISNUMBER(ROUND(G65-G64,2)), ROUND(G65-G64,2)=0,G65=G64)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="1">
+        <v>9.1200000000000005E-4</v>
+      </c>
+      <c r="G65" s="1">
+        <v>538.81120399999998</v>
+      </c>
+      <c r="H65" s="1">
+        <v>53</v>
+      </c>
+      <c r="I65" s="6"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="13"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1.8807999999999998E-2</v>
+      </c>
+      <c r="G66" s="1">
+        <v>6800</v>
+      </c>
+      <c r="H66" s="1">
+        <v>72</v>
+      </c>
+      <c r="I66" s="6">
+        <f t="shared" ref="I66" si="93">H67-H66</f>
+        <v>2</v>
+      </c>
+      <c r="J66" s="9">
+        <f t="shared" ref="J66" si="94">F67-F66</f>
+        <v>1.9350000000000027E-3</v>
+      </c>
+      <c r="K66" s="13" t="b">
+        <f t="shared" ref="K66" si="95">IF(ISNUMBER(ROUND(G67-G66,2)), ROUND(G67-G66,2)=0,G67=G66)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2.0743000000000001E-2</v>
+      </c>
+      <c r="G67" s="1">
+        <v>6800</v>
+      </c>
+      <c r="H67" s="1">
+        <v>74</v>
+      </c>
+      <c r="I67" s="6"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="13"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="1">
+        <v>8.3800000000000003E-3</v>
+      </c>
+      <c r="G68" s="1">
+        <v>3957.98</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1134</v>
+      </c>
+      <c r="I68" s="6">
+        <f t="shared" ref="I68" si="96">H69-H68</f>
+        <v>180</v>
+      </c>
+      <c r="J68" s="9">
+        <f t="shared" ref="J68" si="97">F69-F68</f>
+        <v>5.3899999999999955E-4</v>
+      </c>
+      <c r="K68" s="13" t="b">
+        <f t="shared" ref="K68" si="98">IF(ISNUMBER(ROUND(G69-G68,2)), ROUND(G69-G68,2)=0,G69=G68)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="1">
+        <v>8.9189999999999998E-3</v>
+      </c>
+      <c r="G69" s="1">
+        <v>3957.98</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1314</v>
+      </c>
+      <c r="I69" s="6"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="13"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2.4139999999999999E-3</v>
+      </c>
+      <c r="G70" s="1">
+        <v>3385.4330329999998</v>
+      </c>
+      <c r="H70" s="1">
+        <v>217</v>
+      </c>
+      <c r="I70" s="6">
+        <f t="shared" ref="I70" si="99">H71-H70</f>
+        <v>7</v>
+      </c>
+      <c r="J70" s="9">
+        <f t="shared" ref="J70" si="100">F71-F70</f>
+        <v>2.9100000000000003E-4</v>
+      </c>
+      <c r="K70" s="13" t="b">
+        <f t="shared" ref="K70" si="101">IF(ISNUMBER(ROUND(G71-G70,2)), ROUND(G71-G70,2)=0,G71=G70)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="1">
+        <v>2.7049999999999999E-3</v>
+      </c>
+      <c r="G71" s="1">
+        <v>3385.4330329999998</v>
+      </c>
+      <c r="H71" s="1">
+        <v>224</v>
+      </c>
+      <c r="I71" s="6"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="13"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="1">
+        <v>4.6299999999999998E-4</v>
+      </c>
+      <c r="G72" s="1">
+        <v>3622021.392</v>
+      </c>
+      <c r="H72" s="1">
+        <v>26</v>
+      </c>
+      <c r="I72" s="6">
+        <f t="shared" ref="I72" si="102">H73-H72</f>
+        <v>1</v>
+      </c>
+      <c r="J72" s="9">
+        <f t="shared" ref="J72" si="103">F73-F72</f>
+        <v>4.2200000000000007E-4</v>
+      </c>
+      <c r="K72" s="13" t="b">
+        <f t="shared" ref="K72" si="104">IF(ISNUMBER(ROUND(G73-G72,2)), ROUND(G73-G72,2)=0,G73=G72)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="1">
+        <v>8.8500000000000004E-4</v>
+      </c>
+      <c r="G73" s="1">
+        <v>3622021.392</v>
+      </c>
+      <c r="H73" s="1">
+        <v>27</v>
+      </c>
+      <c r="I73" s="6"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="13"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="1">
+        <v>9.6299999999999999E-4</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.80872199990000004</v>
+      </c>
+      <c r="H74" s="1">
+        <v>3</v>
+      </c>
+      <c r="I74" s="6">
+        <f t="shared" ref="I74" si="105">H75-H74</f>
+        <v>2</v>
+      </c>
+      <c r="J74" s="9">
+        <f t="shared" ref="J74" si="106">F75-F74</f>
+        <v>4.5999999999999925E-5</v>
+      </c>
+      <c r="K74" s="13" t="b">
+        <f t="shared" ref="K74" si="107">IF(ISNUMBER(ROUND(G75-G74,2)), ROUND(G75-G74,2)=0,G75=G74)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1.0089999999999999E-3</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.80872199990000004</v>
+      </c>
+      <c r="H75" s="1">
+        <v>5</v>
+      </c>
+      <c r="I75" s="6"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="13"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="1">
+        <v>3.5266199999999999</v>
+      </c>
+      <c r="G76" s="1">
+        <v>52.763993849999999</v>
+      </c>
+      <c r="H76" s="1">
+        <v>15934</v>
+      </c>
+      <c r="I76" s="6">
+        <f t="shared" ref="I76" si="108">H77-H76</f>
+        <v>2281</v>
+      </c>
+      <c r="J76" s="9">
+        <f t="shared" ref="J76" si="109">F77-F76</f>
+        <v>0.34355000000000002</v>
+      </c>
+      <c r="K76" s="13" t="b">
+        <f t="shared" ref="K76" si="110">IF(ISNUMBER(ROUND(G77-G76,2)), ROUND(G77-G76,2)=0,G77=G76)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="1">
+        <v>3.8701699999999999</v>
+      </c>
+      <c r="G77" s="1">
+        <v>52.763993800000001</v>
+      </c>
+      <c r="H77" s="1">
+        <v>18215</v>
+      </c>
+      <c r="I77" s="6"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="13"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="1">
+        <v>4.55E-4</v>
+      </c>
+      <c r="G78" s="1">
+        <v>-1.6032072079999999</v>
+      </c>
+      <c r="H78" s="1">
+        <v>11</v>
+      </c>
+      <c r="I78" s="6">
+        <f t="shared" ref="I78" si="111">H79-H78</f>
+        <v>6</v>
+      </c>
+      <c r="J78" s="9">
+        <f t="shared" ref="J78" si="112">F79-F78</f>
+        <v>-1.0000000000000026E-5</v>
+      </c>
+      <c r="K78" s="13" t="b">
+        <f t="shared" ref="K78" si="113">IF(ISNUMBER(ROUND(G79-G78,2)), ROUND(G79-G78,2)=0,G79=G78)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="1">
+        <v>4.4499999999999997E-4</v>
+      </c>
+      <c r="G79" s="1">
+        <v>-1.6032072079999999</v>
+      </c>
+      <c r="H79" s="1">
+        <v>17</v>
+      </c>
+      <c r="I79" s="6"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="13"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="1">
+        <v>5.0179999999999999E-3</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1075.547139</v>
+      </c>
+      <c r="H80" s="1">
+        <v>335</v>
+      </c>
+      <c r="I80" s="6">
+        <f t="shared" ref="I80" si="114">H81-H80</f>
+        <v>-1</v>
+      </c>
+      <c r="J80" s="9">
+        <f t="shared" ref="J80" si="115">F81-F80</f>
+        <v>2.0699999999999972E-4</v>
+      </c>
+      <c r="K80" s="13" t="b">
+        <f t="shared" ref="K80" si="116">IF(ISNUMBER(ROUND(G81-G80,2)), ROUND(G81-G80,2)=0,G81=G80)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="1">
+        <v>5.2249999999999996E-3</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1075.547139</v>
+      </c>
+      <c r="H81" s="1">
+        <v>334</v>
+      </c>
+      <c r="I81" s="6"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="13"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="1">
+        <v>9.2100000000000005E-4</v>
+      </c>
+      <c r="G82" s="1">
+        <v>294070</v>
+      </c>
+      <c r="H82" s="1">
+        <v>74</v>
+      </c>
+      <c r="I82" s="6">
+        <f t="shared" ref="I82" si="117">H83-H82</f>
+        <v>4</v>
+      </c>
+      <c r="J82" s="9">
+        <f t="shared" ref="J82" si="118">F83-F82</f>
+        <v>-4.1000000000000021E-5</v>
+      </c>
+      <c r="K82" s="13" t="b">
+        <f t="shared" ref="K82" si="119">IF(ISNUMBER(ROUND(G83-G82,2)), ROUND(G83-G82,2)=0,G83=G82)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="1">
+        <v>8.8000000000000003E-4</v>
+      </c>
+      <c r="G83" s="1">
+        <v>294070</v>
+      </c>
+      <c r="H83" s="1">
+        <v>78</v>
+      </c>
+      <c r="I83" s="6"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="13"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="1">
+        <v>3.2426999999999997E-2</v>
+      </c>
+      <c r="G84" s="1">
+        <v>108.64370510000001</v>
+      </c>
+      <c r="H84" s="1">
+        <v>466</v>
+      </c>
+      <c r="I84" s="6">
+        <f t="shared" ref="I84" si="120">H85-H84</f>
+        <v>-164</v>
+      </c>
+      <c r="J84" s="9">
+        <f t="shared" ref="J84" si="121">F85-F84</f>
+        <v>1.8804000000000001E-2</v>
+      </c>
+      <c r="K84" s="13" t="b">
+        <f t="shared" ref="K84" si="122">IF(ISNUMBER(ROUND(G85-G84,2)), ROUND(G85-G84,2)=0,G85=G84)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="1">
+        <v>5.1230999999999999E-2</v>
+      </c>
+      <c r="G85" s="1">
+        <v>108.63976529999999</v>
+      </c>
+      <c r="H85" s="1">
+        <v>302</v>
+      </c>
+      <c r="I85" s="6"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="13"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="1">
+        <v>273.58300000000003</v>
+      </c>
+      <c r="G86" s="1">
+        <v>266793</v>
+      </c>
+      <c r="H86" s="1">
+        <v>2026623</v>
+      </c>
+      <c r="I86" s="6">
+        <f t="shared" ref="I86" si="123">H87-H86</f>
+        <v>878289</v>
+      </c>
+      <c r="J86" s="9">
+        <f t="shared" ref="J86" si="124">F87-F86</f>
+        <v>-45.724000000000018</v>
+      </c>
+      <c r="K86" s="13" t="b">
+        <f t="shared" ref="K86" si="125">IF(ISNUMBER(ROUND(G87-G86,2)), ROUND(G87-G86,2)=0,G87=G86)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="1">
+        <v>227.85900000000001</v>
+      </c>
+      <c r="G87" s="1">
+        <v>266793</v>
+      </c>
+      <c r="H87" s="1">
+        <v>2904912</v>
+      </c>
+      <c r="I87" s="6"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="13"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="1">
+        <v>2.235E-3</v>
+      </c>
+      <c r="G88" s="1">
+        <v>736000</v>
+      </c>
+      <c r="H88" s="1">
+        <v>45</v>
+      </c>
+      <c r="I88" s="6">
+        <f t="shared" ref="I88" si="126">H89-H88</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="9">
+        <f t="shared" ref="J88" si="127">F89-F88</f>
+        <v>3.79E-4</v>
+      </c>
+      <c r="K88" s="13" t="b">
+        <f t="shared" ref="K88" si="128">IF(ISNUMBER(ROUND(G89-G88,2)), ROUND(G89-G88,2)=0,G89=G88)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="1">
+        <v>2.614E-3</v>
+      </c>
+      <c r="G89" s="1">
+        <v>736000</v>
+      </c>
+      <c r="H89" s="1">
+        <v>45</v>
+      </c>
+      <c r="I89" s="6"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="13"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="1">
+        <v>3.3639999999999998E-3</v>
+      </c>
+      <c r="G90" s="1">
+        <v>17869.04494</v>
+      </c>
+      <c r="H90" s="1">
+        <v>218</v>
+      </c>
+      <c r="I90" s="6">
+        <f t="shared" ref="I90" si="129">H91-H90</f>
+        <v>-3</v>
+      </c>
+      <c r="J90" s="9">
+        <f t="shared" ref="J90" si="130">F91-F90</f>
+        <v>-2.7899999999999973E-4</v>
+      </c>
+      <c r="K90" s="13" t="b">
+        <f t="shared" ref="K90" si="131">IF(ISNUMBER(ROUND(G91-G90,2)), ROUND(G91-G90,2)=0,G91=G90)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="1">
+        <v>3.0850000000000001E-3</v>
+      </c>
+      <c r="G91" s="1">
+        <v>17869.04494</v>
+      </c>
+      <c r="H91" s="1">
+        <v>215</v>
+      </c>
+      <c r="I91" s="6"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="13"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="1">
+        <v>8.5800000000000004E-4</v>
+      </c>
+      <c r="G92" s="1">
+        <v>46965.036160000003</v>
+      </c>
+      <c r="H92" s="1">
+        <v>2</v>
+      </c>
+      <c r="I92" s="6">
+        <f t="shared" ref="I92" si="132">H93-H92</f>
+        <v>4</v>
+      </c>
+      <c r="J92" s="9">
+        <f t="shared" ref="J92" si="133">F93-F92</f>
+        <v>6.8899999999999994E-4</v>
+      </c>
+      <c r="K92" s="13" t="b">
+        <f t="shared" ref="K92" si="134">IF(ISNUMBER(ROUND(G93-G92,2)), ROUND(G93-G92,2)=0,G93=G92)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1.547E-3</v>
+      </c>
+      <c r="G93" s="1">
+        <v>46965.036160000003</v>
+      </c>
+      <c r="H93" s="1">
+        <v>6</v>
+      </c>
+      <c r="I93" s="6"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="13"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="1">
+        <v>2.696E-3</v>
+      </c>
+      <c r="G94" s="1">
+        <v>8.0931711010000002E-4</v>
+      </c>
+      <c r="H94" s="1">
+        <v>13</v>
+      </c>
+      <c r="I94" s="6">
+        <f t="shared" ref="I94" si="135">H95-H94</f>
+        <v>-5</v>
+      </c>
+      <c r="J94" s="9">
+        <f t="shared" ref="J94" si="136">F95-F94</f>
+        <v>-8.3700000000000007E-4</v>
+      </c>
+      <c r="K94" s="13" t="b">
+        <f t="shared" ref="K94" si="137">IF(ISNUMBER(ROUND(G95-G94,2)), ROUND(G95-G94,2)=0,G95=G94)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1.859E-3</v>
+      </c>
+      <c r="G95" s="1">
+        <v>8.0939680129999997E-4</v>
+      </c>
+      <c r="H95" s="1">
+        <v>8</v>
+      </c>
+      <c r="I95" s="6"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="13"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1.1039999999999999E-3</v>
+      </c>
+      <c r="G96" s="1">
+        <v>3</v>
+      </c>
+      <c r="H96" s="1">
+        <v>18</v>
+      </c>
+      <c r="I96" s="6">
+        <f t="shared" ref="I96" si="138">H97-H96</f>
+        <v>30</v>
+      </c>
+      <c r="J96" s="9">
+        <f t="shared" ref="J96" si="139">F97-F96</f>
+        <v>2.3300000000000013E-4</v>
+      </c>
+      <c r="K96" s="13" t="b">
+        <f t="shared" ref="K96" si="140">IF(ISNUMBER(ROUND(G97-G96,2)), ROUND(G97-G96,2)=0,G97=G96)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1.3370000000000001E-3</v>
+      </c>
+      <c r="G97" s="1">
+        <v>3</v>
+      </c>
+      <c r="H97" s="1">
+        <v>48</v>
+      </c>
+      <c r="I97" s="6"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="13"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="1">
+        <v>2.05E-4</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="6">
+        <f t="shared" ref="I98" si="141">H99-H98</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="9">
+        <f t="shared" ref="J98" si="142">F99-F98</f>
+        <v>1.1159999999999998E-3</v>
+      </c>
+      <c r="K98" s="13" t="b">
+        <f t="shared" ref="K98" si="143">IF(ISNUMBER(ROUND(G99-G98,2)), ROUND(G99-G98,2)=0,G99=G98)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1.3209999999999999E-3</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="I99" s="6"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="13"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1.7570000000000001E-3</v>
+      </c>
+      <c r="G100" s="1">
+        <v>8</v>
+      </c>
+      <c r="H100" s="1">
+        <v>14</v>
+      </c>
+      <c r="I100" s="6">
+        <f t="shared" ref="I100" si="144">H101-H100</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="9">
+        <f t="shared" ref="J100" si="145">F101-F100</f>
+        <v>6.6900000000000011E-4</v>
+      </c>
+      <c r="K100" s="13" t="b">
+        <f t="shared" ref="K100" si="146">IF(ISNUMBER(ROUND(G101-G100,2)), ROUND(G101-G100,2)=0,G101=G100)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="1">
+        <v>2.4260000000000002E-3</v>
+      </c>
+      <c r="G101" s="1">
+        <v>8</v>
+      </c>
+      <c r="H101" s="1">
+        <v>14</v>
+      </c>
+      <c r="I101" s="6"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="13"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="1">
+        <v>2.49E-3</v>
+      </c>
+      <c r="G102" s="1">
+        <v>8471.9573029999992</v>
+      </c>
+      <c r="H102" s="1">
+        <v>216</v>
+      </c>
+      <c r="I102" s="6">
+        <f t="shared" ref="I102" si="147">H103-H102</f>
+        <v>54</v>
+      </c>
+      <c r="J102" s="9">
+        <f t="shared" ref="J102" si="148">F103-F102</f>
+        <v>5.0400000000000011E-4</v>
+      </c>
+      <c r="K102" s="13" t="b">
+        <f t="shared" ref="K102" si="149">IF(ISNUMBER(ROUND(G103-G102,2)), ROUND(G103-G102,2)=0,G103=G102)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="1">
+        <v>2.9940000000000001E-3</v>
+      </c>
+      <c r="G103" s="1">
+        <v>8471.9573029999992</v>
+      </c>
+      <c r="H103" s="1">
+        <v>270</v>
+      </c>
+      <c r="I103" s="6"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="13"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="1">
+        <v>3.8027999999999999E-2</v>
+      </c>
+      <c r="G104" s="1">
+        <v>36.959949999999999</v>
+      </c>
+      <c r="H104" s="1">
+        <v>456</v>
+      </c>
+      <c r="I104" s="6">
+        <f t="shared" ref="I104" si="150">H105-H104</f>
+        <v>28</v>
+      </c>
+      <c r="J104" s="9">
+        <f t="shared" ref="J104" si="151">F105-F104</f>
+        <v>1.0999999999999899E-4</v>
+      </c>
+      <c r="K104" s="13" t="b">
+        <f t="shared" ref="K104" si="152">IF(ISNUMBER(ROUND(G105-G104,2)), ROUND(G105-G104,2)=0,G105=G104)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="1">
+        <v>3.8137999999999998E-2</v>
+      </c>
+      <c r="G105" s="1">
+        <v>36.959960000000002</v>
+      </c>
+      <c r="H105" s="1">
+        <v>484</v>
+      </c>
+      <c r="I105" s="6"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="13"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="1">
+        <v>3.6870000000000002E-3</v>
+      </c>
+      <c r="G106" s="1">
+        <v>211.11099999999999</v>
+      </c>
+      <c r="H106" s="1">
+        <v>67</v>
+      </c>
+      <c r="I106" s="6">
+        <f t="shared" ref="I106" si="153">H107-H106</f>
+        <v>-1</v>
+      </c>
+      <c r="J106" s="9">
+        <f t="shared" ref="J106" si="154">F107-F106</f>
+        <v>1.349999999999997E-4</v>
+      </c>
+      <c r="K106" s="13" t="b">
+        <f t="shared" ref="K106" si="155">IF(ISNUMBER(ROUND(G107-G106,2)), ROUND(G107-G106,2)=0,G107=G106)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="1">
+        <v>3.8219999999999999E-3</v>
+      </c>
+      <c r="G107" s="1">
+        <v>211.11099999999999</v>
+      </c>
+      <c r="H107" s="1">
+        <v>66</v>
+      </c>
+      <c r="I107" s="6"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="13"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1.1585E-2</v>
+      </c>
+      <c r="G108" s="1">
+        <v>1640980</v>
+      </c>
+      <c r="H108" s="1">
+        <v>55</v>
+      </c>
+      <c r="I108" s="6">
+        <f t="shared" ref="I108" si="156">H109-H108</f>
+        <v>14</v>
+      </c>
+      <c r="J108" s="9">
+        <f t="shared" ref="J108" si="157">F109-F108</f>
+        <v>2.2120000000000004E-3</v>
+      </c>
+      <c r="K108" s="13" t="b">
+        <f t="shared" ref="K108" si="158">IF(ISNUMBER(ROUND(G109-G108,2)), ROUND(G109-G108,2)=0,G109=G108)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1.3797E-2</v>
+      </c>
+      <c r="G109" s="1">
+        <v>1640980</v>
+      </c>
+      <c r="H109" s="1">
+        <v>69</v>
+      </c>
+      <c r="I109" s="6"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="13"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+      <c r="I110" s="6">
+        <f t="shared" ref="I110" si="159">H111-H110</f>
+        <v>0</v>
+      </c>
+      <c r="J110" s="9">
+        <f t="shared" ref="J110" si="160">F111-F110</f>
+        <v>0</v>
+      </c>
+      <c r="K110" s="13" t="b">
+        <f t="shared" ref="K110" si="161">IF(ISNUMBER(ROUND(G111-G110,2)), ROUND(G111-G110,2)=0,G111=G110)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+      <c r="I111" s="6"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="13"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1.2793000000000001E-2</v>
+      </c>
+      <c r="G112" s="1">
+        <v>8.7868527580000002</v>
+      </c>
+      <c r="H112" s="1">
+        <v>167</v>
+      </c>
+      <c r="I112" s="6">
+        <f t="shared" ref="I112" si="162">H113-H112</f>
+        <v>-7</v>
+      </c>
+      <c r="J112" s="9">
+        <f t="shared" ref="J112" si="163">F113-F112</f>
+        <v>-1.2999999999999991E-4</v>
+      </c>
+      <c r="K112" s="13" t="b">
+        <f t="shared" ref="K112" si="164">IF(ISNUMBER(ROUND(G113-G112,2)), ROUND(G113-G112,2)=0,G113=G112)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1.2663000000000001E-2</v>
+      </c>
+      <c r="G113" s="1">
+        <v>8.7868527580000002</v>
+      </c>
+      <c r="H113" s="1">
+        <v>160</v>
+      </c>
+      <c r="I113" s="6"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="13"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="1">
+        <v>9.7400000000000004E-4</v>
+      </c>
+      <c r="G114" s="1">
+        <v>22</v>
+      </c>
+      <c r="H114" s="1">
+        <v>9</v>
+      </c>
+      <c r="I114" s="6">
+        <f t="shared" ref="I114" si="165">H115-H114</f>
+        <v>0</v>
+      </c>
+      <c r="J114" s="9">
+        <f t="shared" ref="J114" si="166">F115-F114</f>
+        <v>4.9999999999999914E-5</v>
+      </c>
+      <c r="K114" s="13" t="b">
+        <f t="shared" ref="K114" si="167">IF(ISNUMBER(ROUND(G115-G114,2)), ROUND(G115-G114,2)=0,G115=G114)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1.024E-3</v>
+      </c>
+      <c r="G115" s="1">
+        <v>22</v>
+      </c>
+      <c r="H115" s="1">
+        <v>9</v>
+      </c>
+      <c r="I115" s="6"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="13"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0.12071</v>
+      </c>
+      <c r="G116" s="1">
+        <v>39</v>
+      </c>
+      <c r="H116" s="1">
+        <v>1496</v>
+      </c>
+      <c r="I116" s="6">
+        <f t="shared" ref="I116" si="168">H117-H116</f>
+        <v>135</v>
+      </c>
+      <c r="J116" s="9">
+        <f t="shared" ref="J116" si="169">F117-F116</f>
+        <v>3.0202999999999994E-2</v>
+      </c>
+      <c r="K116" s="13" t="b">
+        <f t="shared" ref="K116" si="170">IF(ISNUMBER(ROUND(G117-G116,2)), ROUND(G117-G116,2)=0,G117=G116)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0.15091299999999999</v>
+      </c>
+      <c r="G117" s="1">
+        <v>39</v>
+      </c>
+      <c r="H117" s="1">
+        <v>1631</v>
+      </c>
+      <c r="I117" s="6"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="13"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="1">
+        <v>3.026E-3</v>
+      </c>
+      <c r="G118" s="1">
+        <v>70</v>
+      </c>
+      <c r="H118" s="1">
+        <v>18</v>
+      </c>
+      <c r="I118" s="6">
+        <f t="shared" ref="I118" si="171">H119-H118</f>
+        <v>-1</v>
+      </c>
+      <c r="J118" s="9">
+        <f t="shared" ref="J118" si="172">F119-F118</f>
+        <v>-5.210000000000002E-4</v>
+      </c>
+      <c r="K118" s="13" t="b">
+        <f t="shared" ref="K118" si="173">IF(ISNUMBER(ROUND(G119-G118,2)), ROUND(G119-G118,2)=0,G119=G118)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="1">
+        <v>2.5049999999999998E-3</v>
+      </c>
+      <c r="G119" s="1">
+        <v>70</v>
+      </c>
+      <c r="H119" s="1">
+        <v>17</v>
+      </c>
+      <c r="I119" s="6"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="13"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="1">
+        <v>7.4599999999999996E-3</v>
+      </c>
+      <c r="G120" s="1">
+        <v>12657.77075</v>
+      </c>
+      <c r="H120" s="1">
+        <v>663</v>
+      </c>
+      <c r="I120" s="6">
+        <f t="shared" ref="I120" si="174">H121-H120</f>
+        <v>256</v>
+      </c>
+      <c r="J120" s="9">
+        <f t="shared" ref="J120" si="175">F121-F120</f>
+        <v>4.1729999999999996E-3</v>
+      </c>
+      <c r="K120" s="13" t="b">
+        <f t="shared" ref="K120" si="176">IF(ISNUMBER(ROUND(G121-G120,2)), ROUND(G121-G120,2)=0,G121=G120)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1.1632999999999999E-2</v>
+      </c>
+      <c r="G121" s="1">
+        <v>12657.77075</v>
+      </c>
+      <c r="H121" s="1">
+        <v>919</v>
+      </c>
+      <c r="I121" s="6"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="13"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="1">
+        <v>6.7299999999999999E-4</v>
+      </c>
+      <c r="G122" s="1">
+        <v>1571.0476189999999</v>
+      </c>
+      <c r="H122" s="1">
+        <v>28</v>
+      </c>
+      <c r="I122" s="6">
+        <f t="shared" ref="I122" si="177">H123-H122</f>
+        <v>0</v>
+      </c>
+      <c r="J122" s="9">
+        <f t="shared" ref="J122" si="178">F123-F122</f>
+        <v>-1.8400000000000003E-4</v>
+      </c>
+      <c r="K122" s="13" t="b">
+        <f t="shared" ref="K122" si="179">IF(ISNUMBER(ROUND(G123-G122,2)), ROUND(G123-G122,2)=0,G123=G122)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="1">
+        <v>4.8899999999999996E-4</v>
+      </c>
+      <c r="G123" s="1">
+        <v>1571.0476189999999</v>
+      </c>
+      <c r="H123" s="1">
+        <v>28</v>
+      </c>
+      <c r="I123" s="6"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="13"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0.23050000000000001</v>
+      </c>
+      <c r="G124" s="1">
+        <v>2891.258198</v>
+      </c>
+      <c r="H124" s="1">
+        <v>4047</v>
+      </c>
+      <c r="I124" s="6">
+        <f t="shared" ref="I124" si="180">H125-H124</f>
+        <v>-511</v>
+      </c>
+      <c r="J124" s="9">
+        <f t="shared" ref="J124" si="181">F125-F124</f>
+        <v>0.14809700000000001</v>
+      </c>
+      <c r="K124" s="13" t="b">
+        <f t="shared" ref="K124" si="182">IF(ISNUMBER(ROUND(G125-G124,2)), ROUND(G125-G124,2)=0,G125=G124)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0.37859700000000002</v>
+      </c>
+      <c r="G125" s="1">
+        <v>2891.258198</v>
+      </c>
+      <c r="H125" s="1">
+        <v>3536</v>
+      </c>
+      <c r="I125" s="6"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="13"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="1">
+        <v>4.2354999999999997E-2</v>
+      </c>
+      <c r="G126" s="1">
+        <v>1620.2777920000001</v>
+      </c>
+      <c r="H126" s="1">
+        <v>383</v>
+      </c>
+      <c r="I126" s="6">
+        <f t="shared" ref="I126" si="183">H127-H126</f>
+        <v>-28</v>
+      </c>
+      <c r="J126" s="9">
+        <f t="shared" ref="J126" si="184">F127-F126</f>
+        <v>2.1263999999999998E-2</v>
+      </c>
+      <c r="K126" s="13" t="b">
+        <f t="shared" ref="K126" si="185">IF(ISNUMBER(ROUND(G127-G126,2)), ROUND(G127-G126,2)=0,G127=G126)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="1">
+        <v>6.3618999999999995E-2</v>
+      </c>
+      <c r="G127" s="1">
+        <v>1620.2777920000001</v>
+      </c>
+      <c r="H127" s="1">
+        <v>355</v>
+      </c>
+      <c r="I127" s="25"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="14"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{35FD34FC-661E-4C43-AB46-CA2CEA952159}">
+    <sortState ref="A2:H127">
+      <sortCondition ref="A1:A127"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B40FA8-6DCD-634D-A28C-FAD771488F21}">
-  <dimension ref="A2:E12"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -10996,120 +15390,384 @@
         <v>178</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="27"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B4" s="1">
-        <f>COUNTIFS(Benchmark!E:E,"&lt;&gt;failure", Benchmark!I:I,"&gt;0")</f>
-        <v>37</v>
+        <f>COUNTIFS('Benchmark 1'!E:E,"&lt;&gt;failure", 'Benchmark 1'!I:I,"&gt;0", 'Benchmark 1'!D:D,"=gurobi")</f>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
-        <f>COUNTIFS(Benchmark!E:E,"&lt;&gt;failure", Benchmark!J:J,"&gt;0")</f>
-        <v>67</v>
+        <f>COUNTIFS('Benchmark 1'!E:E,"&lt;&gt;failure", 'Benchmark 1'!J:J,"&gt;0",'Benchmark 1'!D:D,"=gurobi")</f>
+        <v>39</v>
       </c>
       <c r="D4" s="17">
         <f>B4/B7</f>
-        <v>0.26428571428571429</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E4" s="17">
         <f>C4/C7</f>
-        <v>0.47857142857142859</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" s="1">
+        <f>COUNTIFS('Benchmark 2'!E:E,"&lt;&gt;failure", 'Benchmark 2'!I:I,"&gt;0", 'Benchmark 2'!D:D,"=gurobi")</f>
+        <v>33</v>
+      </c>
+      <c r="I4" s="1">
+        <f>COUNTIFS('Benchmark 2'!E:E,"&lt;&gt;failure", 'Benchmark 2'!J:J,"&gt;0", 'Benchmark 2'!D:D,"=gurobi")</f>
+        <v>44</v>
+      </c>
+      <c r="J4" s="17">
+        <f>H4/H7</f>
+        <v>0.54098360655737709</v>
+      </c>
+      <c r="K4" s="17">
+        <f>I4/I7</f>
+        <v>0.72131147540983609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B5" s="1">
-        <f>COUNTIFS(Benchmark!E:E,"&lt;&gt;failure", Benchmark!I:I,"=0")</f>
-        <v>74</v>
+        <f>COUNTIFS('Benchmark 1'!E:E,"&lt;&gt;failure", 'Benchmark 1'!I:I,"=0",'Benchmark 1'!D:D,"=gurobi")</f>
+        <v>34</v>
       </c>
       <c r="C5" s="1">
-        <f>COUNTIFS(Benchmark!E:E,"&lt;&gt;failure", Benchmark!J:J,"=0")</f>
-        <v>40</v>
+        <f>COUNTIFS('Benchmark 1'!E:E,"&lt;&gt;failure", 'Benchmark 1'!J:J,"=0",'Benchmark 1'!D:D,"=gurobi")</f>
+        <v>0</v>
       </c>
       <c r="D5" s="17">
         <f>B5/B7</f>
-        <v>0.52857142857142858</v>
+        <v>0.53968253968253965</v>
       </c>
       <c r="E5" s="17">
         <f>C5/C7</f>
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H5" s="1">
+        <f>COUNTIFS('Benchmark 2'!E:E,"&lt;&gt;failure", 'Benchmark 2'!I:I,"=0", 'Benchmark 2'!D:D,"=gurobi")</f>
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
+        <f>COUNTIFS('Benchmark 2'!E:E,"&lt;&gt;failure", 'Benchmark 2'!J:J,"=0", 'Benchmark 2'!D:D,"=gurobi")</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <f>H5/H7</f>
+        <v>0.16393442622950818</v>
+      </c>
+      <c r="K5" s="17">
+        <f>I5/I7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B6" s="1">
-        <f>COUNTIFS(Benchmark!E:E,"&lt;&gt;failure", Benchmark!I:I,"&lt;0")</f>
-        <v>29</v>
+        <f>COUNTIFS('Benchmark 1'!E:E,"&lt;&gt;failure", 'Benchmark 1'!I:I,"&lt;0",'Benchmark 1'!D:D,"=gurobi")</f>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
-        <f>COUNTIFS(Benchmark!E:E,"&lt;&gt;failure", Benchmark!J:J,"&lt;0")</f>
-        <v>33</v>
+        <f>COUNTIFS('Benchmark 1'!E:E,"&lt;&gt;failure", 'Benchmark 1'!J:J,"&lt;0",'Benchmark 1'!D:D,"=gurobi")</f>
+        <v>24</v>
       </c>
       <c r="D6" s="17">
         <f>B6/B7</f>
-        <v>0.20714285714285716</v>
+        <v>0.17460317460317459</v>
       </c>
       <c r="E6" s="17">
         <f>C6/C7</f>
-        <v>0.23571428571428571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" s="1">
+        <f>COUNTIFS('Benchmark 2'!E:E,"&lt;&gt;failure", 'Benchmark 2'!I:I,"&lt;0", 'Benchmark 2'!D:D,"=gurobi")</f>
+        <v>18</v>
+      </c>
+      <c r="I6" s="1">
+        <f>COUNTIFS('Benchmark 2'!E:E,"&lt;&gt;failure", 'Benchmark 2'!J:J,"&lt;0", 'Benchmark 2'!D:D,"=gurobi")</f>
+        <v>17</v>
+      </c>
+      <c r="J6" s="17">
+        <f>H6/H7</f>
+        <v>0.29508196721311475</v>
+      </c>
+      <c r="K6" s="17">
+        <f>I6/I7</f>
+        <v>0.27868852459016391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7">
         <f>SUM(B4:B6)</f>
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <f>SUM(C4:C6)</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="H7">
+        <f>SUM(H4:H6)</f>
+        <v>61</v>
+      </c>
+      <c r="I7">
+        <f>SUM(I4:I6)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F8" s="27"/>
+      <c r="G8" s="26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="16"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1">
+        <f>COUNTIFS('Benchmark 1'!K:K,"=TRUE",'Benchmark 1'!D:D,"=gurobi")</f>
+        <v>63</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" s="1">
+        <f>COUNTIF('Benchmark 2'!K:K,"=TRUE")</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="1">
-        <f>COUNTIF(Benchmark!K:K,"=TRUE")</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="B11" s="1">
-        <f>COUNTIF(Benchmark!K:K,""=FALSE)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <f>COUNTIFS('Benchmark 1'!K:K,""=FALSE,'Benchmark 1'!D:D,"=gurobi")</f>
+        <v>2</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" s="1">
+        <f>COUNTIF('Benchmark 2'!K:K,""=FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12">
         <f>SUM(B10:B11)</f>
+        <v>65</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="H12">
+        <f>SUM(H10:H11)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="1">
+        <f>COUNTIFS('Benchmark 1'!E:E,"&lt;&gt;failure", 'Benchmark 1'!I:I,"&gt;0")</f>
+        <v>37</v>
+      </c>
+      <c r="C16" s="1">
+        <f>COUNTIFS('Benchmark 1'!E:E,"&lt;&gt;failure", 'Benchmark 1'!J:J,"&gt;0")</f>
+        <v>67</v>
+      </c>
+      <c r="D16" s="17">
+        <f>B16/B19</f>
+        <v>0.26428571428571429</v>
+      </c>
+      <c r="E16" s="17">
+        <f>C16/C19</f>
+        <v>0.47857142857142859</v>
+      </c>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="1">
+        <f>COUNTIFS('Benchmark 1'!E:E,"&lt;&gt;failure", 'Benchmark 1'!I:I,"=0")</f>
+        <v>74</v>
+      </c>
+      <c r="C17" s="1">
+        <f>COUNTIFS('Benchmark 1'!E:E,"&lt;&gt;failure", 'Benchmark 1'!J:J,"=0")</f>
+        <v>40</v>
+      </c>
+      <c r="D17" s="17">
+        <f>B17/B19</f>
+        <v>0.52857142857142858</v>
+      </c>
+      <c r="E17" s="17">
+        <f>C17/C19</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="1">
+        <f>COUNTIFS('Benchmark 1'!E:E,"&lt;&gt;failure", 'Benchmark 1'!I:I,"&lt;0")</f>
+        <v>29</v>
+      </c>
+      <c r="C18" s="1">
+        <f>COUNTIFS('Benchmark 1'!E:E,"&lt;&gt;failure", 'Benchmark 1'!J:J,"&lt;0")</f>
+        <v>33</v>
+      </c>
+      <c r="D18" s="17">
+        <f>B18/B19</f>
+        <v>0.20714285714285716</v>
+      </c>
+      <c r="E18" s="17">
+        <f>C18/C19</f>
+        <v>0.23571428571428571</v>
+      </c>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <f>SUM(B16:B18)</f>
+        <v>140</v>
+      </c>
+      <c r="C19">
+        <f>SUM(C16:C18)</f>
+        <v>140</v>
+      </c>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="1">
+        <f>COUNTIF('Benchmark 1'!K:K,"=TRUE")</f>
+        <v>140</v>
+      </c>
+      <c r="F22" s="27"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="1">
+        <f>COUNTIF('Benchmark 1'!K:K,""=FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <f>SUM(B22:B23)</f>
         <v>146</v>
       </c>
+      <c r="F24" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
